--- a/src/main/resources/kegelmeisterschaft/service/importer/2016/results/Die Dritte - Das Herz der SG.xlsx
+++ b/src/main/resources/kegelmeisterschaft/service/importer/2016/results/Die Dritte - Das Herz der SG.xlsx
@@ -206,11 +206,11 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/worksheetdrawing.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
-<file path=xl/worksheets/sheet.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -351,7 +351,7 @@
         <v>2.0</v>
       </c>
       <c r="J4" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K4" s="6"/>
       <c r="L4" s="3">
@@ -387,7 +387,7 @@
         <v>1.0</v>
       </c>
       <c r="J5" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="6"/>
       <c r="L5" s="3">
@@ -495,7 +495,7 @@
         <v>0.0</v>
       </c>
       <c r="J8" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="3">
@@ -531,7 +531,7 @@
         <v>0.0</v>
       </c>
       <c r="J9" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="3">
@@ -639,7 +639,7 @@
         <v>0.0</v>
       </c>
       <c r="J12" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="3">
@@ -675,7 +675,7 @@
         <v>0.0</v>
       </c>
       <c r="J13" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="3">
@@ -783,7 +783,7 @@
         <v>1.0</v>
       </c>
       <c r="J16" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="3">
@@ -819,7 +819,7 @@
         <v>0.0</v>
       </c>
       <c r="J17" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17" s="6"/>
       <c r="L17" s="3">
@@ -927,7 +927,7 @@
         <v>0.0</v>
       </c>
       <c r="J20" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="3">
@@ -963,7 +963,7 @@
         <v>0.0</v>
       </c>
       <c r="J21" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="3">
@@ -1071,7 +1071,7 @@
         <v>3.0</v>
       </c>
       <c r="J24" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="3">
@@ -1107,7 +1107,7 @@
         <v>1.0</v>
       </c>
       <c r="J25" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="3">
@@ -1215,7 +1215,7 @@
         <v>3.0</v>
       </c>
       <c r="J28" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="3">
@@ -1251,7 +1251,7 @@
         <v>2.0</v>
       </c>
       <c r="J29" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K29" s="6"/>
       <c r="L29" s="3">
@@ -1359,7 +1359,7 @@
         <v>3.0</v>
       </c>
       <c r="J32" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" s="6"/>
       <c r="L32" s="3">
@@ -1395,7 +1395,7 @@
         <v>3.0</v>
       </c>
       <c r="J33" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33" s="6"/>
       <c r="L33" s="3">
@@ -1503,7 +1503,7 @@
         <v>2.0</v>
       </c>
       <c r="J36" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" s="6"/>
       <c r="L36" s="3">
@@ -1539,7 +1539,7 @@
         <v>0.0</v>
       </c>
       <c r="J37" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" s="6"/>
       <c r="L37" s="3">
@@ -1647,7 +1647,7 @@
         <v>0.0</v>
       </c>
       <c r="J40" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K40" s="6"/>
       <c r="L40" s="3">
@@ -1683,7 +1683,7 @@
         <v>3.0</v>
       </c>
       <c r="J41" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K41" s="6"/>
       <c r="L41" s="3">
@@ -1791,7 +1791,7 @@
         <v>1.0</v>
       </c>
       <c r="J44" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K44" s="6"/>
       <c r="L44" s="3">
@@ -1827,7 +1827,7 @@
         <v>0.0</v>
       </c>
       <c r="J45" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K45" s="6"/>
       <c r="L45" s="3">
@@ -1935,7 +1935,7 @@
         <v>1.0</v>
       </c>
       <c r="J48" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48" s="6"/>
       <c r="L48" s="3">
@@ -1971,7 +1971,7 @@
         <v>0.0</v>
       </c>
       <c r="J49" s="5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49" s="6"/>
       <c r="L49" s="3">
